--- a/biology/Zoologie/Gnathia_marleyi/Gnathia_marleyi.xlsx
+++ b/biology/Zoologie/Gnathia_marleyi/Gnathia_marleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathia marleyi est une espèce de crustacés isopodes de la famille des Gnathiidae qui parasite les poissons et qui se rencontre uniquement dans les Caraïbes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Gnathia marleyi a été décrite en 2012 par les zoologistes et parasitologues Charon Farquharson (d), Nico J. Smit (d) et Paul C. Sikkel (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gnathia marleyi a été décrite en 2012 par les zoologistes et parasitologues Charon Farquharson (d), Nico J. Smit (d) et Paul C. Sikkel (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathia marleyi mesure de 2,1 à 3,1 mm pour les femelles et de 2,6 à 3,7 mm pour les mâles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathia marleyi mesure de 2,1 à 3,1 mm pour les femelles et de 2,6 à 3,7 mm pour les mâles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces infectées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les espèces de poissons infectés figurent notamment[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les espèces de poissons infectés figurent notamment :
 Acanthurus bahianus Castelnau, 1855
 Chaetodon capistratus Linnaeus, 1758
 Epinephelus guttatus  (Linnaeus, 1758)
@@ -617,9 +635,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, marleyi, lui a été donnée en l'honneur du musicien et chanteur Bob Marley (1945-1981) en raison du fait qu'elle est exclusivement Caribéenne comme il l'était[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, marleyi, lui a été donnée en l'honneur du musicien et chanteur Bob Marley (1945-1981) en raison du fait qu'elle est exclusivement Caribéenne comme il l'était.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Charon Farquharson, Nico J. Smit et Paul C. Sikkel, « Gnathia marleyi sp. nov. (Crustacea, Isopoda, Gnathiidae) from the Eastern Caribbean », Zootaxa, Magnolia Press (d), vol. 3381, no 1,‎ 6 juillet 2012, p. 47–61 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.3381.1.3, lire en ligne)</t>
         </is>
